--- a/Django_FunctionView.xlsx
+++ b/Django_FunctionView.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EA6FB7-A40B-4247-92B7-82A30ECEDB89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="790" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="790" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -17,6 +16,10 @@
     <sheet name="Database Model Queries" sheetId="7" r:id="rId7"/>
     <sheet name="Rendering Data to Templates" sheetId="8" r:id="rId8"/>
     <sheet name="Dynamic URL Routing &amp; Templates" sheetId="9" r:id="rId9"/>
+    <sheet name="CRUD" sheetId="10" r:id="rId10"/>
+    <sheet name="Create Order Per Customer" sheetId="11" r:id="rId11"/>
+    <sheet name="Filter Form Table Search" sheetId="12" r:id="rId12"/>
+    <sheet name="User Restrict" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
   <si>
     <t>pip install django</t>
   </si>
@@ -852,12 +855,119 @@
   <si>
     <t xml:space="preserve">greatestToLeast = Product.objects.all().order_by('-id') </t>
   </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tự động show ra </t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>django-filter==2.4.0</t>
+  </si>
+  <si>
+    <t>Add to settings.py</t>
+  </si>
+  <si>
+    <t>Create filters.py</t>
+  </si>
+  <si>
+    <t>In views.py</t>
+  </si>
+  <si>
+    <r>
+      <t>from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>filters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC586C0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> *</t>
+    </r>
+  </si>
+  <si>
+    <t>Add filter by date</t>
+  </si>
+  <si>
+    <t>= select * from Customer</t>
+  </si>
+  <si>
+    <t>SELECT * from customer LIMIT 1</t>
+  </si>
+  <si>
+    <t>SELECT * from Customer order by id desc LIMIT 1</t>
+  </si>
+  <si>
+    <t>Customer Register Form</t>
+  </si>
+  <si>
+    <t>Cùng là vào 1 link : http://127.0.0.1:8000/</t>
+  </si>
+  <si>
+    <t>Thêm cái @login_required(login_url='login') vào trước mỗi func nếu muốn phải login xong mới đi vào func đó</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -910,6 +1020,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC586C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -950,7 +1080,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -960,6 +1090,11 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1304,6 +1439,2723 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>256533</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="5133333" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409143</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="190500"/>
+          <a:ext cx="3457143" cy="1609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714625" y="628650"/>
+          <a:ext cx="4533900" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>494479</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="2076450"/>
+          <a:ext cx="6571429" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9353550" y="1619250"/>
+          <a:ext cx="9525" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>313448</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="7019048" cy="1723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5324475" y="5867400"/>
+          <a:ext cx="1866900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>dashboard.html</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161143</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7810500"/>
+          <a:ext cx="6257143" cy="247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3076575" y="6886575"/>
+          <a:ext cx="2676525" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>399388</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>171144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="8582025"/>
+          <a:ext cx="5295238" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3190876" y="8048625"/>
+          <a:ext cx="7143749" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Rectangle 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="8943975"/>
+          <a:ext cx="1190625" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11620500"/>
+          <a:ext cx="7200000" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="12734925"/>
+          <a:ext cx="2609850" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>246857</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13906500"/>
+          <a:ext cx="6342857" cy="228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3333750" y="12915900"/>
+          <a:ext cx="2647950" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>208917</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>171288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="14878050"/>
+          <a:ext cx="5066667" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>218438</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="14859000"/>
+          <a:ext cx="5095238" cy="1866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="14135100"/>
+          <a:ext cx="5848350" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3448050" y="15297150"/>
+          <a:ext cx="3971925" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>46400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="9800000" cy="1647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>399238</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="2476500"/>
+          <a:ext cx="6495238" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>46709</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="3790950"/>
+          <a:ext cx="7323809" cy="2790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3152775" y="1343025"/>
+          <a:ext cx="5286375" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="3057525"/>
+          <a:ext cx="5200650" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>265751</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>37740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="6686550"/>
+          <a:ext cx="7590476" cy="2876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8762</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9906000"/>
+          <a:ext cx="6104762" cy="1971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132571</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="12192000"/>
+          <a:ext cx="6228571" cy="504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="8039100"/>
+          <a:ext cx="733425" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="11201400"/>
+          <a:ext cx="1152525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="12134850"/>
+          <a:ext cx="1152525" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>437714</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="952500"/>
+          <a:ext cx="3485714" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="2581275"/>
+          <a:ext cx="1504950" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580419</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3810000"/>
+          <a:ext cx="4847619" cy="1952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>65831</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6115050" y="10306050"/>
+          <a:ext cx="6752381" cy="1495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218362</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="5704762" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="9239250"/>
+          <a:ext cx="5572125" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1304925" y="7715250"/>
+          <a:ext cx="4019550" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>121675</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>142550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="12020550"/>
+          <a:ext cx="17200000" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="12211050"/>
+          <a:ext cx="1171575" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="13268325"/>
+          <a:ext cx="1171575" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>370667</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="15621000"/>
+          <a:ext cx="6466667" cy="2819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304076</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="5790476" cy="3476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="2867025"/>
+          <a:ext cx="4943475" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>170819</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="381000"/>
+          <a:ext cx="5047619" cy="2619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4124325" y="962025"/>
+          <a:ext cx="3943350" cy="2066925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9458325" y="533400"/>
+          <a:ext cx="2209800" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cai nay la mac</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> dinh cua no, not use</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>428115</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28361</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="2505075"/>
+          <a:ext cx="4076190" cy="1714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7991475" y="2562225"/>
+          <a:ext cx="5133975" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>351544</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="4581525"/>
+          <a:ext cx="7047619" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122971</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="4581525"/>
+          <a:ext cx="6828571" cy="2638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>208838</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8763000"/>
+          <a:ext cx="5695238" cy="800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>465981</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>37857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="9906000"/>
+          <a:ext cx="5952381" cy="1942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="10267950"/>
+          <a:ext cx="2247900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="9105900"/>
+          <a:ext cx="1800225" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>513752</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="8953500"/>
+          <a:ext cx="4780952" cy="276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>209067</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="9525000"/>
+          <a:ext cx="3866667" cy="409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Arrow 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="9105900"/>
+          <a:ext cx="733425" cy="1171575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6069,16 +8921,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6093,8 +8945,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2676525" y="7400925"/>
-          <a:ext cx="2828925" cy="0"/>
+          <a:off x="5210175" y="5829300"/>
+          <a:ext cx="590550" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6520,7 +9372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0"/>
@@ -6673,8 +9525,170 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P69" sqref="P69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P12" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P14" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B53:C68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="7"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3990BB-7908-4175-9B06-2492CC94AE11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0"/>
@@ -6758,7 +9772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D78F97-7124-46E0-AFE8-D4CC5AF7A127}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C209"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -6884,7 +9898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC628F1-A978-458B-94A9-916A0657CCD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0"/>
@@ -6938,11 +9952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8D3A03-4290-4A19-B39C-9E782FC3C3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z179"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="O199" sqref="O199"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7073,7 +10087,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1" xr:uid="{DF3C8627-34CA-4B1B-A612-224F4B40CBF3}"/>
+    <hyperlink ref="C39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -7082,7 +10096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136F6D29-A27E-44ED-8ED2-F3C33D126B2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A122"/>
   <sheetViews>
     <sheetView topLeftCell="B118" workbookViewId="0">
@@ -7118,16 +10132,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44102F91-AE29-4D94-A041-1E305F7F5B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="T2:AB68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T2" s="6" t="s">
         <v>93</v>
       </c>
@@ -7136,12 +10150,15 @@
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
     </row>
-    <row r="3" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="20:24" x14ac:dyDescent="0.25">
+      <c r="Z3" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T5" s="6" t="s">
         <v>95</v>
       </c>
@@ -7150,12 +10167,15 @@
       <c r="W5" s="6"/>
       <c r="X5" s="6"/>
     </row>
-    <row r="6" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="20:24" x14ac:dyDescent="0.25">
+      <c r="Z6" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T8" s="6" t="s">
         <v>97</v>
       </c>
@@ -7164,12 +10184,15 @@
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
     </row>
-    <row r="9" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T9" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="20:24" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T11" s="6" t="s">
         <v>99</v>
       </c>
@@ -7178,12 +10201,12 @@
       <c r="W11" s="6"/>
       <c r="X11" s="6"/>
     </row>
-    <row r="12" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T14" s="6" t="s">
         <v>101</v>
       </c>
@@ -7191,7 +10214,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="20:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="20:26" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
         <v>102</v>
       </c>
@@ -7436,7 +10459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45E54E57-98F6-44B3-8E04-614D9A636FE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A102"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
@@ -7467,11 +10490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E615D02-E506-4012-9DD0-4ECE0935DFD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Django_FunctionView.xlsx
+++ b/Django_FunctionView.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="790" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="790" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Create Order Per Customer" sheetId="11" r:id="rId11"/>
     <sheet name="Filter Form Table Search" sheetId="12" r:id="rId12"/>
     <sheet name="User Restrict" sheetId="13" r:id="rId13"/>
+    <sheet name="User Role Based Permissions" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
   <si>
     <t>pip install django</t>
   </si>
@@ -961,6 +962,12 @@
   </si>
   <si>
     <t>Thêm cái @login_required(login_url='login') vào trước mỗi func nếu muốn phải login xong mới đi vào func đó</t>
+  </si>
+  <si>
+    <t>Tao Group</t>
+  </si>
+  <si>
+    <t>Gán User cho Group</t>
   </si>
 </sst>
 </file>
@@ -4125,6 +4132,147 @@
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504148</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>75717</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="590550"/>
+          <a:ext cx="5419048" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>189028</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>75524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5143500"/>
+          <a:ext cx="11771428" cy="5409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="7581900"/>
+          <a:ext cx="581025" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
@@ -9649,8 +9797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T61" sqref="T61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9684,6 +9832,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="W55" sqref="W55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
